--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Text.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DD5DA8-C1B9-A34D-AF11-0C3139E0CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5424D8A-5500-5A47-9843-946F4273ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -71,9 +71,6 @@
     <t>英文</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>SpellCast_DistanceNotEnought</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>技能施放距离不够</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>SpellCast_NotSelectTarget</t>
   </si>
   <si>
@@ -98,27 +92,18 @@
     <t>目标距离太远！</t>
   </si>
   <si>
-    <t>10003</t>
-  </si>
-  <si>
     <t>SpellCast_SpellInCD</t>
   </si>
   <si>
     <t>技能在冷却中！</t>
   </si>
   <si>
-    <t>10004</t>
-  </si>
-  <si>
     <t>SpellCast_MPNotEnought</t>
   </si>
   <si>
     <t>魔法值不足！</t>
   </si>
   <si>
-    <t>10005</t>
-  </si>
-  <si>
     <t>SpellCast_HPNotEnought</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
   </si>
   <si>
     <t>SpellCast_TargetNotInFrontOfCaster</t>
-  </si>
-  <si>
-    <t>目标不在前方</t>
   </si>
   <si>
     <t>任务目标距离太远！</t>
@@ -136,6 +118,26 @@
   </si>
   <si>
     <t>Quest_NPCTooFar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_NotFinish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务未完成！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标不在前方！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_NotFoundNPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到目标！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +216,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -560,28 +562,28 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -590,46 +592,46 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="B7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="B8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="B9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -638,20 +640,42 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16">
       <c r="B11" s="2">
         <v>10007</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="B12" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="B13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Text.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Text.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5424D8A-5500-5A47-9843-946F4273ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C8C56-A0D8-CA45-862A-26A3BDC991C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -69,83 +69,13 @@
   </si>
   <si>
     <t>英文</t>
-  </si>
-  <si>
-    <t>SpellCast_DistanceNotEnought</t>
-  </si>
-  <si>
-    <t>技能施放距离不够！</t>
-  </si>
-  <si>
-    <t>技能施放距离不够</t>
-  </si>
-  <si>
-    <t>SpellCast_NotSelectTarget</t>
-  </si>
-  <si>
-    <t>没有选择目标！</t>
-  </si>
-  <si>
-    <t>SpellCast_TargetTooFar</t>
-  </si>
-  <si>
-    <t>目标距离太远！</t>
-  </si>
-  <si>
-    <t>SpellCast_SpellInCD</t>
-  </si>
-  <si>
-    <t>技能在冷却中！</t>
-  </si>
-  <si>
-    <t>SpellCast_MPNotEnought</t>
-  </si>
-  <si>
-    <t>魔法值不足！</t>
-  </si>
-  <si>
-    <t>SpellCast_HPNotEnought</t>
-  </si>
-  <si>
-    <t>生命值不足！</t>
-  </si>
-  <si>
-    <t>SpellCast_TargetNotInFrontOfCaster</t>
-  </si>
-  <si>
-    <t>任务目标距离太远！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_NPCTooFar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_NotFinish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务未完成！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标不在前方！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_NotFoundNPC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有找到目标！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +86,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -208,17 +131,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -544,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -561,126 +478,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="B5" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="B6" s="2">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="B7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="B8" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="B9" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="B10" s="2">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="B11" s="2">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="B12" s="2">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="B13" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
